--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Item</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>ESP12</t>
   </si>
 </sst>
 </file>
@@ -536,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,8 +595,8 @@
         <v>1.145</v>
       </c>
       <c r="E2">
-        <f>B2*C2</f>
-        <v>1.26</v>
+        <f>B2*D2</f>
+        <v>1.145</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -616,8 +619,8 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E16" si="0">B3*C3</f>
-        <v>0.43</v>
+        <f t="shared" ref="E3:E17" si="0">B3*D3</f>
+        <v>0.34899999999999998</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -641,7 +644,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1.72</v>
+        <v>1.518</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -665,7 +668,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1.33</v>
+        <v>1.181</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
@@ -689,7 +692,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.21</v>
+        <v>0.192</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>20</v>
@@ -713,7 +716,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1.04</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>21</v>
@@ -737,7 +740,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>1.59</v>
+        <v>1.425</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>25</v>
@@ -761,7 +764,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>27</v>
@@ -785,7 +788,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>30</v>
@@ -809,7 +812,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.44</v>
+        <v>0.311</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>35</v>
@@ -833,7 +836,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.44</v>
+        <v>0.374</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>36</v>
@@ -857,7 +860,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>39</v>
@@ -881,7 +884,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>1.1100000000000001</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>44</v>
@@ -905,7 +908,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>46</v>
@@ -929,7 +932,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G16" t="s">
         <v>49</v>
@@ -937,80 +940,87 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="H17" t="s">
-        <v>60</v>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="H20" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1021,7 +1031,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1032,16 +1042,27 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>58</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E28">
-        <f>SUM(E2:E16)</f>
-        <v>11.519999999999998</v>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <f>SUM(E2:E17)</f>
+        <v>10.827</v>
       </c>
     </row>
   </sheetData>
